--- a/uploads/sample.xlsx
+++ b/uploads/sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>매장명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BCS 청담</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>BCS 롯데월드몰</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -150,27 +146,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seoul</t>
+    <t>서울특별시 중구 명동8길 40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCS 명동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-756-7535</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCS 청담</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kyungnam</t>
+    <t>경남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울특별시 중구 명동8길 40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCS 명동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-756-7535</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>seoul</t>
+    <t>인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +190,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +233,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -302,25 +325,38 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +644,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,175 +655,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/sample.xlsx
+++ b/uploads/sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>매장명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,30 +42,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BCS 광명</t>
-  </si>
-  <si>
     <t>경기도 광명시 오리로 944</t>
   </si>
   <si>
     <t>02-2066-7615</t>
   </si>
   <si>
-    <t>BCS 분당</t>
-  </si>
-  <si>
     <t>경기도 성남시 분당구 분당로 53번길 22</t>
   </si>
   <si>
     <t>031-707-6430</t>
-  </si>
-  <si>
-    <t>경기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울임요</t>
@@ -123,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경상남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +118,300 @@
   </si>
   <si>
     <t>042-12-12342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BCS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분당</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NotoSansKR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BCS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분당</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BCS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광명찾자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BCS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NotoSansKR"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BCS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NotoSansKR"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NotoSansKR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종로구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NotoSansKR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NotoSansKR"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NotoSansKR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>망원구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NotoSansKR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창천동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BCS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제주</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제주특별시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NotoSansKR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제주동</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,6 +534,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -266,7 +553,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,6 +583,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+      <selection activeCell="A18" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -593,7 +883,7 @@
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -606,137 +896,140 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/sample.xlsx
+++ b/uploads/sample.xlsx
@@ -24,25 +24,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
-    <t>서울</t>
+    <t>매장명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번호</t>
+    <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제품명</t>
+    <t>연락처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가격</t>
+    <t>그룹이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가격2</t>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,41 +461,43 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="73.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
